--- a/Dokumentation/Arbeitspakete.xlsx
+++ b/Dokumentation/Arbeitspakete.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quentinwendegass/Documents/Projects/Miniprojekt/Dokumentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quentinwendegass/Documents/Projects/Diplomarbeit/Dokumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="460" windowWidth="11420" windowHeight="16480" xr2:uid="{749F50CE-61DA-6345-B232-53D65BA6FFF6}"/>
+    <workbookView xWindow="17380" yWindow="460" windowWidth="11420" windowHeight="16480" xr2:uid="{749F50CE-61DA-6345-B232-53D65BA6FFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -44,9 +44,6 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>1.3</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Erstellung der Dokumentation</t>
   </si>
   <si>
-    <t>Kurzpräsentation</t>
-  </si>
-  <si>
     <t>Recherche</t>
   </si>
   <si>
@@ -83,31 +77,10 @@
     <t>Server Software</t>
   </si>
   <si>
-    <t>Testverbindung</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
     <t>Datenbank Nutzer</t>
   </si>
   <si>
     <t>Vermittlung Software</t>
-  </si>
-  <si>
-    <t>Testanwendung Login</t>
-  </si>
-  <si>
-    <t>Testanwendung Übertragung</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>0.2</t>
   </si>
   <si>
     <t>W + K</t>
@@ -576,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37018344-BB2C-BB43-92EB-A2138D9A1F9E}">
-  <dimension ref="B1:E16"/>
+  <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,13 +582,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="7">
         <v>4</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -623,13 +596,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -637,13 +610,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -651,13 +624,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -665,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4">
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -679,104 +652,48 @@
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4">
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4">
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="4">
-        <v>6</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
+      <c r="B12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
